--- a/data/raw/data_raw (1000 with other column).xlsx
+++ b/data/raw/data_raw (1000 with other column).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pop\Documents\GitHub\utcc_independent_study\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pop\Documents\GitHub\utcc_independent_study\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FEE018-FAE5-4D69-93B6-853A4D08BCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3F2B62-083C-4E66-BB56-066B1C69E513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E78B6ED1-A7EF-4C64-B1F5-2AB70B3F331B}"/>
   </bookViews>
@@ -4629,8 +4629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202D586E-4817-4FA0-8986-BD648B6B0107}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A989" workbookViewId="0">
-      <selection activeCell="Q1000" sqref="Q1000"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
